--- a/Users Loads33.xlsx
+++ b/Users Loads33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4396307444954564</v>
+        <v>0.7131454013693158</v>
       </c>
       <c r="C2" t="n">
-        <v>6.294113902404237</v>
+        <v>5.592240811597634</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4210873563822399</v>
+        <v>0.2481467529642666</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9416641873520993</v>
+        <v>2.568363194695795</v>
       </c>
       <c r="C3" t="n">
-        <v>1.85996829342028</v>
+        <v>6.944210389064279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251316026267763</v>
+        <v>0.2125228094245637</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.548361599809058</v>
+        <v>2.647205468240926</v>
       </c>
       <c r="C4" t="n">
-        <v>5.30173365822831</v>
+        <v>6.403905015443384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3855815930502488</v>
+        <v>0.1832293551550989</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.145790887916684</v>
+        <v>6.04507282363414</v>
       </c>
       <c r="C5" t="n">
-        <v>4.717159897103354</v>
+        <v>6.31204708615462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5049080680630764</v>
+        <v>0.06784159116075698</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.192831098817965</v>
+        <v>14.06023077590105</v>
       </c>
       <c r="C6" t="n">
-        <v>2.670510127700223</v>
+        <v>5.178973583419995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3111868870364627</v>
+        <v>0.1959823299810904</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.524292527894018</v>
+        <v>14.48890428424191</v>
       </c>
       <c r="C7" t="n">
-        <v>2.634211546446275</v>
+        <v>6.098804045571349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3324433404794836</v>
+        <v>0.2720567509693512</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.82227996971526</v>
+        <v>24.16246440737111</v>
       </c>
       <c r="C8" t="n">
-        <v>8.169512054811721</v>
+        <v>9.745169764229159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5608229875087827</v>
+        <v>0.4614624345762225</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.245760312450336</v>
+        <v>24.3280091298871</v>
       </c>
       <c r="C9" t="n">
-        <v>1.770078720164147</v>
+        <v>2.473273169075814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3031609477961255</v>
+        <v>0.2644608199462568</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.75810204690722</v>
+        <v>25.35076633339005</v>
       </c>
       <c r="C10" t="n">
-        <v>2.570819457866137</v>
+        <v>5.585513524618056</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4957323426497515</v>
+        <v>0.4328524329639947</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.11051035939631</v>
+        <v>27.36471731264333</v>
       </c>
       <c r="C11" t="n">
-        <v>4.759500890192763</v>
+        <v>10.30472530979305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6711187423036697</v>
+        <v>0.3039220061724839</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.44805123442781</v>
+        <v>28.92290952007006</v>
       </c>
       <c r="C12" t="n">
-        <v>7.401947521634333</v>
+        <v>5.984451848940888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6898175277013807</v>
+        <v>0.1976728342088896</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.59879913367624</v>
+        <v>29.7122852362458</v>
       </c>
       <c r="C13" t="n">
-        <v>2.170511690443469</v>
+        <v>4.833502433591743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4059569517819452</v>
+        <v>0.4284165818425606</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.84474667469937</v>
+        <v>30.87544720180574</v>
       </c>
       <c r="C14" t="n">
-        <v>6.044624815735055</v>
+        <v>10.01900593605195</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4045553638451254</v>
+        <v>0.3026854177416096</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.80132017239522</v>
+        <v>39.11604877037068</v>
       </c>
       <c r="C15" t="n">
-        <v>7.683748969515339</v>
+        <v>6.467193188867001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6593730469686651</v>
+        <v>0.3351700829899101</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.40708471783093</v>
+        <v>40.91535242763847</v>
       </c>
       <c r="C16" t="n">
-        <v>6.74906718950293</v>
+        <v>4.773960365075257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7285701780157676</v>
+        <v>0.2682458236128044</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.95147735664536</v>
+        <v>43.7526127367742</v>
       </c>
       <c r="C17" t="n">
-        <v>3.212094757744798</v>
+        <v>9.996105461169302</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2558979200888314</v>
+        <v>0.3724362796570399</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16.58054585141866</v>
+        <v>44.01897647314829</v>
       </c>
       <c r="C18" t="n">
-        <v>6.394210922825135</v>
+        <v>4.620189692081145</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7598299708707624</v>
+        <v>0.1237991275231469</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.45193488150526</v>
+        <v>44.79438217627125</v>
       </c>
       <c r="C19" t="n">
-        <v>5.985106122627422</v>
+        <v>1.616725098870846</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2360379244118757</v>
+        <v>0.2357590708861638</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22.87703862599168</v>
+        <v>50.70824374661723</v>
       </c>
       <c r="C20" t="n">
-        <v>7.223881570394169</v>
+        <v>3.225802992199693</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6202350258520982</v>
+        <v>0.1424796505541676</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23.27664976506388</v>
+        <v>51.18049870444506</v>
       </c>
       <c r="C21" t="n">
-        <v>7.616671294771296</v>
+        <v>5.304779816730153</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5553699501805157</v>
+        <v>0.4418221419383085</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.60832291980084</v>
+        <v>52.36376824395273</v>
       </c>
       <c r="C22" t="n">
-        <v>6.536892380583813</v>
+        <v>11.0188341879635</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5152285333773649</v>
+        <v>0.4456086441312597</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.0679002429808</v>
+        <v>53.98629597011968</v>
       </c>
       <c r="C23" t="n">
-        <v>6.336201396034872</v>
+        <v>6.757371421476136</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4330738497646101</v>
+        <v>0.4799794579454052</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.16275219551751</v>
+        <v>56.29731853515833</v>
       </c>
       <c r="C24" t="n">
-        <v>2.720545221864092</v>
+        <v>6.270262636540552</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2591217964177499</v>
+        <v>0.3741569512613357</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32.77184589336522</v>
+        <v>57.2651991953982</v>
       </c>
       <c r="C25" t="n">
-        <v>7.195605356447945</v>
+        <v>7.797990709931033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2726401836399081</v>
+        <v>0.3336871896094403</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.12466213148551</v>
+        <v>60.21572435701789</v>
       </c>
       <c r="C26" t="n">
-        <v>5.960079123756574</v>
+        <v>9.588928098411674</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6531131187183375</v>
+        <v>0.3237447874314263</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>36.86189475361564</v>
+        <v>68.13005763250628</v>
       </c>
       <c r="C27" t="n">
-        <v>5.182842764516132</v>
+        <v>8.89273753853535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5288923950570596</v>
+        <v>0.493152723685757</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>37.20531976273777</v>
+        <v>69.68289432960331</v>
       </c>
       <c r="C28" t="n">
-        <v>3.255848654302146</v>
+        <v>3.353288055493673</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5661918012143381</v>
+        <v>0.1554034766632332</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>37.29998969780495</v>
+        <v>69.80753962211512</v>
       </c>
       <c r="C29" t="n">
-        <v>7.177703728440461</v>
+        <v>6.704697213326831</v>
       </c>
       <c r="D29" t="n">
-        <v>0.697728632314766</v>
+        <v>0.1839323640285265</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>42.55873768498127</v>
+        <v>70.22390534034895</v>
       </c>
       <c r="C30" t="n">
-        <v>7.52920800574092</v>
+        <v>4.75256867037756</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6800511393859228</v>
+        <v>0.1080499357298469</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>43.05559167669539</v>
+        <v>72.90709378200165</v>
       </c>
       <c r="C31" t="n">
-        <v>8.752682474817156</v>
+        <v>9.312793576310561</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5115516592319993</v>
+        <v>0.2866357267259277</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.73554491866862</v>
+        <v>78.07082937753073</v>
       </c>
       <c r="C32" t="n">
-        <v>10.07544316188318</v>
+        <v>5.263253081009208</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7038795718122823</v>
+        <v>0.3152792800012945</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>52.32554206108477</v>
+        <v>79.11643076209351</v>
       </c>
       <c r="C33" t="n">
-        <v>5.209834161125441</v>
+        <v>7.385134722111482</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5021719526351484</v>
+        <v>0.1765228367999463</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>53.7088810998311</v>
+        <v>79.93221852051238</v>
       </c>
       <c r="C34" t="n">
-        <v>3.000553193175308</v>
+        <v>6.677905992492134</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5182911579927857</v>
+        <v>0.5678235242314674</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>57.87751362291212</v>
+        <v>79.94116162502411</v>
       </c>
       <c r="C35" t="n">
-        <v>4.12627588084314</v>
+        <v>9.596997136666808</v>
       </c>
       <c r="D35" t="n">
-        <v>0.729165095524176</v>
+        <v>0.3393540249870383</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>58.60741058187318</v>
+        <v>80.31898942874012</v>
       </c>
       <c r="C36" t="n">
-        <v>4.176574192805625</v>
+        <v>10.78142641423647</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3513863097213084</v>
+        <v>0.4736799164439878</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>58.83350884334487</v>
+        <v>84.04030133040752</v>
       </c>
       <c r="C37" t="n">
-        <v>5.0913632410467</v>
+        <v>3.943415130614477</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5029094252538486</v>
+        <v>0.1672814956806244</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>61.49954269897221</v>
+        <v>87.91337596427964</v>
       </c>
       <c r="C38" t="n">
-        <v>5.449497790539857</v>
+        <v>1.523988684146729</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7681061638592197</v>
+        <v>0.1849102778597674</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>64.07959017076924</v>
+        <v>90.5444027609453</v>
       </c>
       <c r="C39" t="n">
-        <v>6.828478855647367</v>
+        <v>4.065907034406649</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7101853524567814</v>
+        <v>0.1653792618286098</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>64.88206749186573</v>
+        <v>95.7464726509962</v>
       </c>
       <c r="C40" t="n">
-        <v>4.827895034457357</v>
+        <v>6.516667323326247</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4525416648465892</v>
+        <v>0.4834792167992181</v>
       </c>
     </row>
     <row r="41">
@@ -1001,293 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.42266580901853</v>
+        <v>98.57898810822162</v>
       </c>
       <c r="C41" t="n">
-        <v>4.413395052685319</v>
+        <v>10.05987057608029</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4889186452209671</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>67.48119927582754</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.818297908795393</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.638618629647586</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>68.18536248445014</v>
-      </c>
-      <c r="C43" t="n">
-        <v>6.111491889063177</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5791330445150603</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>68.34736300497661</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6.923747915146279</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.2640513380597351</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>70.00351934318074</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.948896404410403</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.4649399405447345</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>73.78624698755277</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.417260387798791</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.2455194679325965</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>77.59815824996954</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.885986446348632</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2366806337863278</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>78.10402041045124</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.114504323764913</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4540531411731885</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>78.75792210108952</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.93142944078784</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5129108856535008</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>79.32285119981529</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.402326146299357</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4175575362373024</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>81.46105505060258</v>
-      </c>
-      <c r="C51" t="n">
-        <v>5.904091474042679</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5505056968103612</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>85.3087516901771</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7.648124000494199</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5019711515254432</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>86.41652972616332</v>
-      </c>
-      <c r="C53" t="n">
-        <v>6.139466871636611</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.4104013303519381</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>90.40136257787645</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.904490302079596</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.3844743396847504</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>91.77741947651359</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2.884531102773153</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.4009746434004273</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>92.52515294872917</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.14173955616989</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.3176305102087585</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>94.45404190167018</v>
-      </c>
-      <c r="C57" t="n">
-        <v>7.885111653286879</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.4373619408366942</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>95.69033778810366</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2.166798565769561</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.4992730368661686</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>96.28560871160261</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.733114506534613</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.3964867829286526</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>97.84395146842913</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.133706728529044</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.4099556757145116</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>99.38021941181157</v>
-      </c>
-      <c r="C61" t="n">
-        <v>8.799159780597174</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.4523829529148722</v>
+        <v>0.276904630716172</v>
       </c>
     </row>
   </sheetData>
